--- a/18.xlsx
+++ b/18.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wik13\PycharmProjects\yandex3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wik13\yandex3\Yandex3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554C52BC-38CC-4776-A69C-F2C8E1D74086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1467A9F-6938-4D2D-816E-41823B3E9DD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -114,9 +114,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -462,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,59 +1209,59 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <f t="shared" ref="A17:M17" si="0">A1+B1</f>
-        <v>178</v>
-      </c>
-      <c r="B17" s="7">
+        <f t="shared" ref="A17:M17" si="0">B17+A1</f>
+        <v>764</v>
+      </c>
+      <c r="B17" s="6">
         <f t="shared" si="0"/>
-        <v>161</v>
-      </c>
-      <c r="C17" s="7">
+        <v>675</v>
+      </c>
+      <c r="C17" s="6">
         <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="D17" s="7">
+        <v>586</v>
+      </c>
+      <c r="D17" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E17" s="7">
+        <v>514</v>
+      </c>
+      <c r="E17" s="6">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="F17" s="7">
+        <v>468</v>
+      </c>
+      <c r="F17" s="6">
         <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="G17" s="7">
+        <v>434</v>
+      </c>
+      <c r="G17" s="6">
         <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="H17" s="7">
+        <v>398</v>
+      </c>
+      <c r="H17" s="6">
         <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="I17" s="7">
+        <v>368</v>
+      </c>
+      <c r="I17" s="6">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="J17" s="7">
+        <v>335</v>
+      </c>
+      <c r="J17" s="6">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="K17" s="7">
+        <v>251</v>
+      </c>
+      <c r="K17" s="6">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="L17" s="7">
+        <v>215</v>
+      </c>
+      <c r="L17" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="M17" s="7">
+        <v>156</v>
+      </c>
+      <c r="M17" s="6">
         <f t="shared" si="0"/>
-        <v>103</v>
-      </c>
-      <c r="N17" s="7">
-        <f>N1+O1</f>
+        <v>121</v>
+      </c>
+      <c r="N17" s="6">
+        <f>O17+N1</f>
         <v>76</v>
       </c>
       <c r="O17" s="2">
@@ -1339,33 +1336,33 @@
         <f>A18+A3</f>
         <v>827</v>
       </c>
-      <c r="B19" s="7">
-        <f t="shared" ref="B19:G19" si="2">B3+C3</f>
-        <v>118</v>
-      </c>
-      <c r="C19" s="7">
+      <c r="B19" s="6">
+        <f t="shared" ref="B19:G19" si="2">C19+B3</f>
+        <v>868</v>
+      </c>
+      <c r="C19" s="6">
         <f t="shared" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="D19" s="7">
+        <v>808</v>
+      </c>
+      <c r="D19" s="6">
         <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="E19" s="7">
+        <v>750</v>
+      </c>
+      <c r="E19" s="6">
         <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="F19" s="7">
+        <v>737</v>
+      </c>
+      <c r="F19" s="6">
         <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="G19" s="7">
+        <v>703</v>
+      </c>
+      <c r="G19" s="6">
         <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="H19" s="7">
-        <f>H3+I3</f>
-        <v>124</v>
+        <v>680</v>
+      </c>
+      <c r="H19" s="6">
+        <f>I19+H3</f>
+        <v>607</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="1"/>
@@ -1403,27 +1400,27 @@
       </c>
       <c r="B20" s="3">
         <f t="shared" si="1"/>
+        <v>903</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="1"/>
+        <v>886</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="1"/>
         <v>854</v>
       </c>
-      <c r="C20" s="4">
-        <f t="shared" si="1"/>
-        <v>837</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" si="1"/>
-        <v>805</v>
-      </c>
       <c r="E20" s="4">
         <f t="shared" si="1"/>
-        <v>728</v>
+        <v>777</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="1"/>
-        <v>694</v>
+        <v>743</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="1"/>
-        <v>675</v>
+        <v>724</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" si="1"/>
@@ -1459,17 +1456,17 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <f t="shared" ref="A21:B21" si="5">A5+B5</f>
-        <v>96</v>
-      </c>
-      <c r="B21" s="7">
+      <c r="A21" s="6">
+        <f t="shared" ref="A21:B21" si="5">B21+A5</f>
+        <v>1085</v>
+      </c>
+      <c r="B21" s="6">
         <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="C21" s="7">
-        <f>C5+D5</f>
-        <v>88</v>
+        <v>1059</v>
+      </c>
+      <c r="C21" s="6">
+        <f>D21+C5</f>
+        <v>989</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="1"/>
@@ -1557,13 +1554,13 @@
         <f>I21+I6</f>
         <v>726</v>
       </c>
-      <c r="J22" s="7">
-        <f>J6+K6</f>
-        <v>77</v>
-      </c>
-      <c r="K22" s="7">
-        <f>K6+L6</f>
-        <v>100</v>
+      <c r="J22" s="6">
+        <f>K22+J6</f>
+        <v>613</v>
+      </c>
+      <c r="K22" s="6">
+        <f>L22+K6</f>
+        <v>572</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" si="1"/>
@@ -1621,11 +1618,11 @@
       </c>
       <c r="J23" s="3">
         <f t="shared" si="1"/>
-        <v>692</v>
+        <v>713</v>
       </c>
       <c r="K23" s="4">
         <f t="shared" si="1"/>
-        <v>640</v>
+        <v>661</v>
       </c>
       <c r="L23" s="4">
         <f t="shared" si="1"/>
@@ -1645,21 +1642,21 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <f t="shared" ref="A24:C24" si="7">A8+B8</f>
-        <v>114</v>
-      </c>
-      <c r="B24" s="7">
+      <c r="A24" s="6">
+        <f t="shared" ref="A24:C24" si="7">B24+A8</f>
+        <v>1253</v>
+      </c>
+      <c r="B24" s="6">
         <f t="shared" si="7"/>
-        <v>111</v>
-      </c>
-      <c r="C24" s="7">
+        <v>1180</v>
+      </c>
+      <c r="C24" s="6">
         <f t="shared" si="7"/>
-        <v>110</v>
-      </c>
-      <c r="D24" s="7">
-        <f>D8+E8</f>
-        <v>62</v>
+        <v>1139</v>
+      </c>
+      <c r="D24" s="6">
+        <f>E24+D8</f>
+        <v>1069</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="1"/>
@@ -1683,11 +1680,11 @@
       </c>
       <c r="J24" s="3">
         <f t="shared" si="1"/>
-        <v>768</v>
+        <v>789</v>
       </c>
       <c r="K24" s="4">
         <f t="shared" si="1"/>
-        <v>652</v>
+        <v>673</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" si="1"/>
@@ -1709,7 +1706,7 @@
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <f t="shared" si="1"/>
-        <v>1226</v>
+        <v>1267</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="1"/>
@@ -1745,11 +1742,11 @@
       </c>
       <c r="J25" s="3">
         <f t="shared" si="1"/>
-        <v>782</v>
+        <v>803</v>
       </c>
       <c r="K25" s="4">
         <f t="shared" si="1"/>
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="L25" s="4">
         <f t="shared" si="1"/>
